--- a/psp_forms/psp_Size_Estimating_template.xlsx
+++ b/psp_forms/psp_Size_Estimating_template.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="16515" windowHeight="6720"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="6720"/>
   </bookViews>
   <sheets>
-    <sheet name="excel(8)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel-3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel_8" localSheetId="0">'excel(8)'!$A$1:$L$51</definedName>
+    <definedName name="excel_3" localSheetId="0">'excel-3'!$A$1:$L$51</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -18,7 +18,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\usuario\Downloads\excel(8).iqy" name="excel(8)" type="4" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\usuario\AppData\Local\Temp\excel-3.iqy" name="excel-3" type="4" refreshedVersion="4" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fpsp2%2Fsizeest%2Eclass&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
@@ -1244,7 +1244,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel(8)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel-3" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1536,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1736,7 +1736,7 @@
         <v>86</v>
       </c>
       <c r="F14" s="6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G14" s="6">
         <v>60</v>
@@ -1746,13 +1746,13 @@
         <v>89</v>
       </c>
       <c r="J14" s="6">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K14" s="6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L14" s="6">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1778,13 +1778,13 @@
         <v>60</v>
       </c>
       <c r="J15" s="6">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
       </c>
       <c r="L15" s="6">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1802,7 +1802,7 @@
         <v>136</v>
       </c>
       <c r="F16" s="6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G16" s="6">
         <v>115</v>
@@ -1812,13 +1812,13 @@
         <v>295</v>
       </c>
       <c r="J16" s="6">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="K16" s="6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L16" s="6">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="6">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="6"/>
@@ -2079,7 +2079,7 @@
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="6">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="6"/>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="6">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="6"/>
@@ -2197,7 +2197,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="8"/>
       <c r="F41" s="24">
-        <v>0.15347222222222223</v>
+        <v>0.17083333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2322,10 +2322,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://localhost:2468/psp-lib/sizeinst.htm"/>
-    <hyperlink ref="A16" r:id="rId2" display="http://localhost:2468/reports/sizeest.class?moreBaseParts=16"/>
+    <hyperlink ref="A16" r:id="rId2" display="http://localhost:2468/reports/sizeest.class?moreBaseParts=14"/>
     <hyperlink ref="D18" r:id="rId3" display="http://localhost:2468/dash/sizePerItemEdit"/>
-    <hyperlink ref="A21" r:id="rId4" display="http://localhost:2468/reports/sizeest.class?moreNew=16"/>
-    <hyperlink ref="A25" r:id="rId5" display="http://localhost:2468/reports/sizeest.class?moreReused=16"/>
+    <hyperlink ref="A21" r:id="rId4" display="http://localhost:2468/reports/sizeest.class?moreNew=14"/>
+    <hyperlink ref="A25" r:id="rId5" display="http://localhost:2468/reports/sizeest.class?moreReused=14"/>
     <hyperlink ref="A29" r:id="rId6" display="http://localhost:2468/reports/probe/probe.class"/>
     <hyperlink ref="A47" r:id="rId7" display="http://localhost:2468/reports/probe/probe.class?page=report"/>
   </hyperlinks>
